--- a/app/static/reclaims/expenses_form_samonig.xlsx
+++ b/app/static/reclaims/expenses_form_samonig.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Expense Claim Form 14-11-19" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Receipt for row 8" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" calcOnSave="0" fullCalcOnLoad="1"/>
@@ -416,36 +415,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="13163550" cy="8448675"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -779,7 +748,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="7.46484375"/>
     <col customWidth="1" max="2" min="2" width="11.59765625"/>
@@ -900,12 +869,12 @@
       </c>
       <c r="B7" s="46" t="inlineStr">
         <is>
-          <t>23/11/2000</t>
+          <t>11/12/2003</t>
         </is>
       </c>
       <c r="C7" s="47" t="inlineStr">
         <is>
-          <t>Description: df Start: Wellington College, Duke's Ride, RG457PU End: villach Starting date: 23/11/2000 Ending date: 23/11/2000</t>
+          <t>Description: df Start: Wellington College, Duke's Ride, RG457PU End: Villach, Österreich Starting date: 11/12/2003 Ending date: 11/12/2003</t>
         </is>
       </c>
       <c r="D7" s="47" t="n">
@@ -932,20 +901,22 @@
       </c>
       <c r="B8" s="46" t="inlineStr">
         <is>
-          <t>23/12/2003</t>
+          <t>11/12/2003</t>
         </is>
       </c>
       <c r="C8" s="47" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D8" s="47" t="n"/>
+          <t>Description: f Start: Wellington College, Duke's Ride, RG457PU End: Villach, Österreich Starting date: 11/12/2003 Ending date: 11/12/2003</t>
+        </is>
+      </c>
+      <c r="D8" s="47" t="n">
+        <v>941</v>
+      </c>
       <c r="E8" s="47" t="n">
         <v>23</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>23</v>
+        <v>423.45</v>
       </c>
     </row>
     <row r="9">
@@ -1198,7 +1169,7 @@
       </c>
       <c r="F28" s="6" t="inlineStr">
         <is>
-          <t>14/08/2020</t>
+          <t>15/08/2020</t>
         </is>
       </c>
     </row>
@@ -1269,23 +1240,4 @@
   <pageMargins bottom="0.1574803149606299" footer="0.3149606299212598" header="0.3149606299212598" left="0" right="0.1181102362204725" top="0.1574803149606299"/>
   <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>